--- a/public/data/yield_loss/yield_table_togo.xlsx
+++ b/public/data/yield_loss/yield_table_togo.xlsx
@@ -1275,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1309.05</v>
+        <v>1161.93</v>
       </c>
       <c r="G2" t="n">
         <v>432.25</v>
       </c>
       <c r="H2" t="n">
-        <v>20.67</v>
+        <v>18.11</v>
       </c>
       <c r="I2" t="n">
         <v>58.29</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>353.58</v>
+        <v>311.13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>1507.87</v>
       </c>
       <c r="U2" t="n">
-        <v>12.54</v>
+        <v>11.91</v>
       </c>
       <c r="V2" t="n">
         <v>2.66</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>80.23</v>
+        <v>80.21</v>
       </c>
       <c r="G3" t="n">
         <v>3.25</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>40.45</v>
+        <v>40.44</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>163.13</v>
+        <v>163.11</v>
       </c>
       <c r="G4" t="n">
         <v>3.83</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>105.31</v>
+        <v>105.3</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>429.17</v>
+        <v>428.92</v>
       </c>
       <c r="G6" t="n">
         <v>8.19</v>
       </c>
       <c r="H6" t="n">
-        <v>13.22</v>
+        <v>13.21</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>332.29</v>
+        <v>332.15</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>613.96</v>
+        <v>608.78</v>
       </c>
       <c r="G14" t="n">
         <v>21.53</v>
       </c>
       <c r="H14" t="n">
-        <v>7.41</v>
+        <v>7.35</v>
       </c>
       <c r="I14" t="n">
         <v>6.06</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>146.09</v>
+        <v>144.95</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>189.49</v>
       </c>
       <c r="U14" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3662.97</v>
+        <v>2217.77</v>
       </c>
       <c r="G15" t="n">
         <v>755.01</v>
       </c>
       <c r="H15" t="n">
-        <v>49.23</v>
+        <v>29.03</v>
       </c>
       <c r="I15" t="n">
         <v>147.43</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>771.38</v>
+        <v>472.09</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>993.06</v>
       </c>
       <c r="U15" t="n">
-        <v>22.81</v>
+        <v>17.02</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2395,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4942.38</v>
+        <v>3986.93</v>
       </c>
       <c r="G16" t="n">
         <v>1019.87</v>
       </c>
       <c r="H16" t="n">
-        <v>77.84</v>
+        <v>61.26</v>
       </c>
       <c r="I16" t="n">
         <v>302.41</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1066.41</v>
+        <v>875.08</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>1844.16</v>
       </c>
       <c r="U16" t="n">
-        <v>43.17</v>
+        <v>41.79</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>194.64</v>
+        <v>189.05</v>
       </c>
       <c r="G17" t="n">
         <v>29.75</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I17" t="n">
         <v>11.92</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>43</v>
+        <v>41.82</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1103.76</v>
+        <v>1031.33</v>
       </c>
       <c r="G18" t="n">
         <v>276.2</v>
       </c>
       <c r="H18" t="n">
-        <v>19.34</v>
+        <v>17.96</v>
       </c>
       <c r="I18" t="n">
         <v>68.92</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>218.43</v>
+        <v>204.83</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>385.31</v>
       </c>
       <c r="U18" t="n">
-        <v>9.68</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
         <v>18.06</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>716.64</v>
+        <v>697.75</v>
       </c>
       <c r="G20" t="n">
         <v>108.02</v>
       </c>
       <c r="H20" t="n">
-        <v>8.58</v>
+        <v>8.3</v>
       </c>
       <c r="I20" t="n">
         <v>53.33</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>191.06</v>
+        <v>186.33</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>381.43</v>
       </c>
       <c r="U20" t="n">
-        <v>7.35</v>
+        <v>7.61</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2795,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>822.13</v>
+        <v>817.03</v>
       </c>
       <c r="G21" t="n">
         <v>26.87</v>
       </c>
       <c r="H21" t="n">
-        <v>11.55</v>
+        <v>11.47</v>
       </c>
       <c r="I21" t="n">
         <v>5.29</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>164.42</v>
+        <v>163.4</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>204.13</v>
       </c>
       <c r="U21" t="n">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="V21" t="n">
         <v>2.19</v>
@@ -2875,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2622.44</v>
+        <v>2457.3</v>
       </c>
       <c r="G22" t="n">
         <v>268.46</v>
       </c>
       <c r="H22" t="n">
-        <v>32.97</v>
+        <v>30.88</v>
       </c>
       <c r="I22" t="n">
         <v>117.28</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>642.89</v>
+        <v>601.63</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>1189.9</v>
       </c>
       <c r="U22" t="n">
-        <v>25.31</v>
+        <v>24.43</v>
       </c>
       <c r="V22" t="n">
         <v>0.19</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>305.91</v>
+        <v>300.68</v>
       </c>
       <c r="G24" t="n">
         <v>35.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
         <v>15.02</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>70.39</v>
+        <v>69.28</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>152.51</v>
       </c>
       <c r="U24" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4234.88</v>
+        <v>3260.87</v>
       </c>
       <c r="G25" t="n">
         <v>904.03</v>
       </c>
       <c r="H25" t="n">
-        <v>67.66</v>
+        <v>53.89</v>
       </c>
       <c r="I25" t="n">
         <v>254.24</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>807.34</v>
+        <v>624.16</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>1304.06</v>
       </c>
       <c r="U25" t="n">
-        <v>36.49</v>
+        <v>32.41</v>
       </c>
       <c r="V25" t="n">
         <v>9.03</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>272.86</v>
+        <v>272.82</v>
       </c>
       <c r="G26" t="n">
         <v>1.95</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>357.23</v>
+        <v>357.19</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
